--- a/biology/Médecine/Hiroshige_Shiota/Hiroshige_Shiota.xlsx
+++ b/biology/Médecine/Hiroshige_Shiota/Hiroshige_Shiota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiroshige Shiota (塩田 広重?), né le 14 octobre 1873 dans la préfecture de Kyoto, décédé le 11 mai 1965, est un chirurgien japonais.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shiota est diplômé en 1899 de l'université impériale de Tokyo où il reste jusqu'en 1907 comme assistant scientifique. Entre 1907 et 1909, il complète un programme d'études à Vienne. Après son retour, il est nommé professeur de chirurgie à l'université de Tokyo et plus tard médecin-chef à l'hôpital universitaire.
 En 1919, il est élu président de la Société des chirurgiens japonais.
-Lorsqu'en 1930 le premier ministre Osachi Hamaguchi est abattu en gare de Tokyo, il l'opère en ayant recours à une transfusion sanguine, technique encore inhabituelle à l'époque. Après la guerre il est à la tête du bureau de médecine (医療局, Iryō-kyoku) du ministère des Affaires sociales[1].
+Lorsqu'en 1930 le premier ministre Osachi Hamaguchi est abattu en gare de Tokyo, il l'opère en ayant recours à une transfusion sanguine, technique encore inhabituelle à l'époque. Après la guerre il est à la tête du bureau de médecine (医療局, Iryō-kyoku) du ministère des Affaires sociales.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1954 : nomination comme Bunka Kōrōsha, au titre de personne de mérite culturel[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1954 : nomination comme Bunka Kōrōsha, au titre de personne de mérite culturel
 1960 : ordre du Mérite de la République fédérale d'Allemagne</t>
         </is>
       </c>
